--- a/Παραδοτέο_2/pert_diagram_paradotea_v2.xlsx
+++ b/Παραδοτέο_2/pert_diagram_paradotea_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linos\Downloads\ΕΑΡΙΝΟ ΕΞΑΜΗΝΟ 2022\ΤΕΧΝΟΛΟΓΙΑ ΛΟΓΙΣΜΙΚΟΥ\Παραδοτέο_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1483EC7F-C7F2-4526-9314-EADBFE7AC564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C907F44-3613-47E1-902F-2DCEEB04EBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1350" windowWidth="22410" windowHeight="13140" xr2:uid="{FA30BCB5-6770-4580-88D9-06C9C3D8975D}"/>
+    <workbookView xWindow="10575" yWindow="870" windowWidth="18225" windowHeight="13140" xr2:uid="{FA30BCB5-6770-4580-88D9-06C9C3D8975D}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -195,12 +195,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,12 +217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,6 +224,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -250,15 +253,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>107496</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>206828</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:colOff>117021</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>216353</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -273,7 +276,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$4:$J$6" spid="_x0000_s1061"/>
+                  <a14:cameraTool cellRange="$G$4:$J$6" spid="_x0000_s1116"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -287,8 +290,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4638675" y="533400"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="4679496" y="696685"/>
+              <a:ext cx="1533525" cy="744311"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -314,15 +317,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>89807</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28574</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>99332</xdr:colOff>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -338,7 +341,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$8:$E$10" spid="_x0000_s1062"/>
+                  <a14:cameraTool cellRange="$B$8:$E$10" spid="_x0000_s1117"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -352,203 +355,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6362700" y="504825"/>
-              <a:ext cx="1533525" cy="723900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="Εικόνα 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192B458D-AE3F-452A-B1C2-A15AF0EE1CD3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$8:$J$10" spid="_x0000_s1063"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="8162925" y="504825"/>
-              <a:ext cx="1533525" cy="723900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="Εικόνα 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6653316-C88A-479D-835C-983FF9368FC1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$12:$E$14" spid="_x0000_s1064"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="9896475" y="514350"/>
-              <a:ext cx="1533525" cy="723900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>34</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Εικόνα 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB02085A-6946-4206-B59C-7D5D1104A8F2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$12:$J$14" spid="_x0000_s1065"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="11649075" y="504825"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="6566807" y="273503"/>
+              <a:ext cx="1533525" cy="744311"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -573,15 +381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>117021</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>89807</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89127</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -599,8 +407,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="866775"/>
-          <a:ext cx="190500" cy="28575"/>
+          <a:off x="6213021" y="645659"/>
+          <a:ext cx="353786" cy="423182"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -628,184 +436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>300717</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Ευθύγραμμο βέλος σύνδεσης 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4763292-7E59-4054-A843-9690D4E0773E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="866775"/>
-          <a:ext cx="266700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Ευθύγραμμο βέλος σύνδεσης 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4930FD-0DC4-43A6-9DD9-40084F2CB04B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9696450" y="866775"/>
-          <a:ext cx="200025" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Ευθύγραμμο βέλος σύνδεσης 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2901103-D70C-49F2-BB30-C029C9E83490}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11430000" y="866775"/>
-          <a:ext cx="219075" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>234042</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>170090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -820,8 +460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172075" y="1733550"/>
-          <a:ext cx="1457325" cy="1028700"/>
+          <a:off x="10587717" y="583747"/>
+          <a:ext cx="1457325" cy="1055914"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -882,80 +522,20 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Γραμμή σύνδεσης: Γωνιώδης 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B578675D-7BCC-4CAC-AD0C-55F056094441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="37" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5172075" y="866775"/>
-          <a:ext cx="8010525" cy="1381125"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2854"/>
-            <a:gd name="adj2" fmla="val 44483"/>
-            <a:gd name="adj3" fmla="val 102854"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>246288</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>186417</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>255813</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>195941</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -970,13 +550,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$16:$E$18" spid="_x0000_s1066"/>
+                  <a14:cameraTool cellRange="$B$16:$E$18" spid="_x0000_s1118"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -984,8 +564,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6886575" y="1914525"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="5199288" y="2390774"/>
+              <a:ext cx="1533525" cy="744310"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1011,16 +591,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>224518</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>187779</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>234043</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>204107</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1035,13 +615,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$16:$J$18" spid="_x0000_s1067"/>
+                  <a14:cameraTool cellRange="$G$16:$J$18" spid="_x0000_s1119"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1049,8 +629,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="8620125" y="1895475"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="7082518" y="2392136"/>
+              <a:ext cx="1533525" cy="751114"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1074,16 +654,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1098,8 +678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10591800" y="1714500"/>
-          <a:ext cx="1457325" cy="1028700"/>
+          <a:off x="9190264" y="2224768"/>
+          <a:ext cx="1457325" cy="1055914"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1164,16 +744,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>46265</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>159203</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>55790</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>168729</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1188,13 +768,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$20:$E$22" spid="_x0000_s1068"/>
+                  <a14:cameraTool cellRange="$B$20:$E$22" spid="_x0000_s1120"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1202,8 +782,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4876800" y="3295650"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="4999265" y="3833132"/>
+              <a:ext cx="1533525" cy="744311"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1229,16 +809,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>246290</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>255815</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>171451</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1253,13 +833,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$20:$J$22" spid="_x0000_s1069"/>
+                  <a14:cameraTool cellRange="$G$20:$J$22" spid="_x0000_s1121"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1267,8 +847,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6505575" y="3257550"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="7104290" y="3835854"/>
+              <a:ext cx="1533525" cy="744311"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1294,16 +874,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>21</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>195943</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>171451</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>205468</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>180977</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1318,13 +898,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$24:$E$26" spid="_x0000_s1070"/>
+                  <a14:cameraTool cellRange="$B$24:$E$26" spid="_x0000_s1122"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1332,8 +912,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="8305800" y="3267075"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="8958943" y="3845380"/>
+              <a:ext cx="1533525" cy="744311"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1357,16 +937,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>189139</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>208190</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1381,8 +961,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10163175" y="3105150"/>
-          <a:ext cx="1457325" cy="1028700"/>
+          <a:off x="10857139" y="3805918"/>
+          <a:ext cx="1457325" cy="1055915"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1443,148 +1023,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="52" name="Εικόνα 51">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BB7DA2-5772-4DB2-A222-50677605BB1B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$24:$J$26" spid="_x0000_s1071"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="4953000" y="4629150"/>
-              <a:ext cx="1533525" cy="723900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="54" name="Εικόνα 53">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D66C162-18BF-4CD1-9EE6-56F590A9AF99}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$28:$E$30" spid="_x0000_s1072"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="6848475" y="4619625"/>
-              <a:ext cx="1533525" cy="723900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>29937</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>193221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>344262</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1599,8 +1049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8724900" y="4438650"/>
-          <a:ext cx="1457325" cy="1028700"/>
+          <a:off x="8030937" y="5336721"/>
+          <a:ext cx="1457325" cy="1055915"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1669,148 +1119,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="58" name="Εικόνα 57">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AD9227-8911-4BE4-930A-E493FBCFC3B3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$28:$J$30" spid="_x0000_s1073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="5105400" y="5981700"/>
-              <a:ext cx="1533525" cy="723900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="59" name="Εικόνα 58">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55857C2-B44C-451D-9EB6-7B81D0AAF05B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$32:$E$34" spid="_x0000_s1074"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="6991350" y="5972175"/>
-              <a:ext cx="1533525" cy="723900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>216355</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>234044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65316</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1825,8 +1145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9115425" y="5867400"/>
-          <a:ext cx="1457325" cy="1028700"/>
+          <a:off x="7455355" y="7336973"/>
+          <a:ext cx="1457325" cy="1055914"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -1899,16 +1219,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>247649</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>103412</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>257174</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>112937</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1923,13 +1243,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$G$32:$J$34" spid="_x0000_s1075"/>
+                  <a14:cameraTool cellRange="$G$32:$J$34" spid="_x0000_s1123"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1937,8 +1257,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="5105400" y="7315200"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="9391649" y="6961412"/>
+              <a:ext cx="1533525" cy="744311"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1964,16 +1284,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>250373</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>118382</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>259898</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>127907</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1988,13 +1308,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$36:$E$38" spid="_x0000_s1076"/>
+                  <a14:cameraTool cellRange="$B$36:$E$38" spid="_x0000_s1124"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -2002,8 +1322,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6877050" y="7343775"/>
-              <a:ext cx="1533525" cy="723900"/>
+              <a:off x="9394373" y="7956096"/>
+              <a:ext cx="1533525" cy="744311"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2027,16 +1347,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12247</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>201384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>32656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2051,8 +1371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8734425" y="7181850"/>
-          <a:ext cx="1457325" cy="1028700"/>
+          <a:off x="11442247" y="7304313"/>
+          <a:ext cx="1457325" cy="1055914"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -2123,16 +1443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>255813</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>224518</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2149,9 +1469,65 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6732813" y="2762929"/>
+          <a:ext cx="349705" cy="4764"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Ευθύγραμμο βέλος σύνδεσης 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E744545-BEB2-475C-BCE5-D0F3DD84F4E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8420100" y="2257425"/>
-          <a:ext cx="200025" cy="19050"/>
+          <a:off x="8616043" y="2752725"/>
+          <a:ext cx="574221" cy="14968"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2180,34 +1556,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>55790</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>246290</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Ευθύγραμμο βέλος σύνδεσης 66">
+        <xdr:cNvPr id="71" name="Ευθύγραμμο βέλος σύνδεσης 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6213BF8C-3ADB-4E5F-B330-4E76EF6F6E47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7086EE2-030B-4ECC-9424-C56CFC7278BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="3"/>
-          <a:endCxn id="45" idx="1"/>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="2247900"/>
-          <a:ext cx="257175" cy="28575"/>
+          <a:off x="6532790" y="4205288"/>
+          <a:ext cx="571500" cy="2722"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2235,35 +1611,572 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>255815</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Ευθύγραμμο βέλος σύνδεσης 68">
+        <xdr:cNvPr id="73" name="Ευθύγραμμο βέλος σύνδεσης 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E744545-BEB2-475C-BCE5-D0F3DD84F4E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224A8B8B-B454-4B9F-A527-AD269369079C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-          <a:endCxn id="47" idx="1"/>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8637815" y="4208010"/>
+          <a:ext cx="321128" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>205468</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>189139</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170090</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Ευθύγραμμο βέλος σύνδεσης 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC48F2E-1104-4A3F-99CB-FB8A5C1EBD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10492468" y="4217536"/>
+          <a:ext cx="364671" cy="116340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46265</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Γραμμή σύνδεσης: Γωνιώδης 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDB66C2-89B5-43D9-8938-F15D74A2326A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4999265" y="2752725"/>
+          <a:ext cx="5648324" cy="1452563"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4047"/>
+            <a:gd name="adj2" fmla="val 55363"/>
+            <a:gd name="adj3" fmla="val 104047"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>259898</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>239484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12247</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>681</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Ευθύγραμμο βέλος σύνδεσης 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED80DB28-8B6C-4052-99AC-EDA34925F0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10153650" y="2228850"/>
-          <a:ext cx="438150" cy="28575"/>
+          <a:off x="10927898" y="7832270"/>
+          <a:ext cx="514349" cy="495982"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>230639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Γραμμή σύνδεσης: Γωνιώδης 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8457047-8AEB-4F3A-849F-EEB1C841D342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8912680" y="7333568"/>
+          <a:ext cx="478969" cy="531362"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="88" name="Εικόνα 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B493490-88B1-4359-BA77-4A5EDC96DE4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$G$8:$J$10" spid="_x0000_s1125"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6572250" y="1170214"/>
+              <a:ext cx="1533525" cy="744311"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>353786</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>13606</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>363311</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>23132</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="94" name="Εικόνα 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1214F30D-1A7A-44E4-890E-20AC94272A97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$12:$E$14" spid="_x0000_s1126"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="8354786" y="258535"/>
+              <a:ext cx="1533525" cy="744311"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>367393</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>204107</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>376918</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>213632</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="96" name="Εικόνα 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1A734-11BB-4B5A-B629-F8407DB65075}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$G$12:$J$14" spid="_x0000_s1127"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="8368393" y="1183821"/>
+              <a:ext cx="1533525" cy="744311"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>99332</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155802</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Ευθύγραμμο βέλος σύνδεσης 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FD6B50-DA47-43EA-A140-1599464094D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="94" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8100332" y="630691"/>
+          <a:ext cx="254454" cy="14968"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86406</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Ευθύγραμμο βέλος σύνδεσης 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1AC9E4-5E18-4BCD-99F4-3932BB388D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="3"/>
+          <a:endCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="1542370"/>
+          <a:ext cx="262618" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2292,90 +2205,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>117021</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Ευθύγραμμο βέλος σύνδεσης 70">
+        <xdr:cNvPr id="98" name="Ευθύγραμμο βέλος σύνδεσης 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7086EE2-030B-4ECC-9424-C56CFC7278BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB1DBA8-BF9D-4876-ACC2-AF0958EFA1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="3"/>
-          <a:endCxn id="49" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6410325" y="3619500"/>
-          <a:ext cx="95250" cy="38100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Ευθύγραμμο βέλος σύνδεσης 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224A8B8B-B454-4B9F-A527-AD269369079C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="3"/>
-          <a:endCxn id="50" idx="1"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="88" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="3619500"/>
-          <a:ext cx="266700" cy="9525"/>
+          <a:off x="6213021" y="1068841"/>
+          <a:ext cx="359229" cy="473529"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2404,34 +2261,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>363311</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>300717</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131990</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Ευθύγραμμο βέλος σύνδεσης 74">
+        <xdr:cNvPr id="108" name="Ευθύγραμμο βέλος σύνδεσης 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC48F2E-1104-4A3F-99CB-FB8A5C1EBD08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB25890-D537-4470-8F2F-049A5349810B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="51" idx="1"/>
+          <a:stCxn id="94" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9839325" y="3619500"/>
-          <a:ext cx="323850" cy="9525"/>
+        <a:xfrm>
+          <a:off x="9888311" y="630691"/>
+          <a:ext cx="699406" cy="481013"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2459,215 +2316,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>376918</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>300717</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86406</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Γραμμή σύνδεσης: Γωνιώδης 79">
+        <xdr:cNvPr id="110" name="Ευθύγραμμο βέλος σύνδεσης 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDB66C2-89B5-43D9-8938-F15D74A2326A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{345F2ED0-8A27-43C1-A4BF-A5733D1E6DF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="3"/>
-          <a:endCxn id="48" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4876800" y="2228850"/>
-          <a:ext cx="7172325" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3187"/>
-            <a:gd name="adj2" fmla="val 55333"/>
-            <a:gd name="adj3" fmla="val 103187"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="Γραμμή σύνδεσης: Γωνιώδης 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51ACDAF-7697-4D28-986D-A52459FBB108}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="3"/>
-          <a:endCxn id="52" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4953000" y="3619500"/>
-          <a:ext cx="6667500" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3429"/>
-            <a:gd name="adj2" fmla="val 55556"/>
-            <a:gd name="adj3" fmla="val 103429"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Γραμμή σύνδεσης: Γωνιώδης 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1508D21-39A7-4FEB-B8A3-9867665397C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="55" idx="3"/>
-          <a:endCxn id="58" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5105400" y="4953000"/>
-          <a:ext cx="5076825" cy="1390650"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -4503"/>
-            <a:gd name="adj2" fmla="val 55479"/>
-            <a:gd name="adj3" fmla="val 104503"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="Ευθύγραμμο βέλος σύνδεσης 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4409A95-668C-49F2-8325-F883CC94D60E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="3"/>
-          <a:endCxn id="54" idx="1"/>
+          <a:stCxn id="96" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6486525" y="4981575"/>
-          <a:ext cx="361950" cy="9525"/>
+          <a:off x="9901918" y="1111704"/>
+          <a:ext cx="685799" cy="444273"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2695,35 +2372,697 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246288</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>234042</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="Ευθύγραμμο βέλος σύνδεσης 92">
+        <xdr:cNvPr id="113" name="Γραμμή σύνδεσης: Γωνιώδης 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F677CA09-313C-4ADE-B4FD-755B5FF9B02C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83B91A7-1E9F-4A44-ABD3-B403D5C9CFFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="3"/>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5199288" y="1111704"/>
+          <a:ext cx="6845754" cy="1651225"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3339"/>
+            <a:gd name="adj2" fmla="val 54718"/>
+            <a:gd name="adj3" fmla="val 103339"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>176895</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>217715</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>186420</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>227240</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="140" name="Εικόνα 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001B49E7-E809-43B5-8209-A7348F82AE39}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$G$24:$J$26" spid="_x0000_s1128"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5510895" y="5116286"/>
+              <a:ext cx="1533525" cy="744311"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>204108</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>54429</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>213633</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>63955</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="145" name="Εικόνα 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C44B3C-02CE-4AB7-8D29-C0B598AA432B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$28:$E$30" spid="_x0000_s1129"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5538108" y="5932715"/>
+              <a:ext cx="1533525" cy="744311"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176895</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="Γραμμή σύνδεσης: Γωνιώδης 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082C798D-0051-4D46-A907-D4375AC1DCC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="140" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5510895" y="4333876"/>
+          <a:ext cx="6803569" cy="1154566"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3360"/>
+            <a:gd name="adj2" fmla="val 56747"/>
+            <a:gd name="adj3" fmla="val 103360"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="Γραμμή σύνδεσης: Γωνιώδης 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D06610E-A94E-4FD0-B207-2B887C717AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="145" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4814547" y="5581309"/>
+          <a:ext cx="1188585" cy="258537"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186420</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>29937</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="Ευθύγραμμο βέλος σύνδεσης 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3E82C5-E14D-4797-A853-7878B6A4E28E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7044420" y="5488442"/>
+          <a:ext cx="986517" cy="376237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213633</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>29937</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="Ευθύγραμμο βέλος σύνδεσης 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC7EBDB-6EE4-4819-A857-49F4A0D5A293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="145" idx="3"/>
           <a:endCxn id="55" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8382000" y="4953000"/>
-          <a:ext cx="342900" cy="28575"/>
+          <a:off x="7071633" y="5864679"/>
+          <a:ext cx="959304" cy="440192"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>217715</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>217714</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>227240</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>227239</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="198" name="Εικόνα 197">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F220A42-3D3B-4FEB-92BE-42B573B94589}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$G$28:$J$30" spid="_x0000_s1130"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5170715" y="7075714"/>
+              <a:ext cx="1533525" cy="744311"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>217714</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>108857</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>227239</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>118381</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="199" name="Εικόνα 198">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A08B7D5-474C-448C-85E8-12A518C41F51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$32:$E$34" spid="_x0000_s1131"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5170714" y="7946571"/>
+              <a:ext cx="1533525" cy="744310"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>344262</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="201" name="Γραμμή σύνδεσης: Γωνιώδης 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2533B8-06E8-45FF-A1EC-1199C11573B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="198" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5170715" y="5864679"/>
+          <a:ext cx="4317547" cy="1583191"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5295"/>
+            <a:gd name="adj2" fmla="val 54920"/>
+            <a:gd name="adj3" fmla="val 105295"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>236082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="Γραμμή σύνδεσης: Γωνιώδης 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00661CD3-56F8-496F-BB04-09A0CC159583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="199" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4460761" y="7608772"/>
+          <a:ext cx="1202191" cy="217715"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>216355</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="Ευθύγραμμο βέλος σύνδεσης 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721E6D49-EC1B-4CDC-8351-F25D6969B51E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="198" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6704240" y="7447870"/>
+          <a:ext cx="751115" cy="417060"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2752,34 +3091,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>227239</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>216355</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>236083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Ευθύγραμμο βέλος σύνδεσης 94">
+        <xdr:cNvPr id="212" name="Ευθύγραμμο βέλος σύνδεσης 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B5D0E5-0476-4388-A457-D9B039A85CE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888C75C7-77DC-4DDB-9795-43A92444D7FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="59" idx="1"/>
+          <a:stCxn id="199" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6638925" y="6334125"/>
-          <a:ext cx="352425" cy="9525"/>
+          <a:off x="6704239" y="7864930"/>
+          <a:ext cx="751116" cy="453796"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2807,37 +3146,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>250373</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>681</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="Ευθύγραμμο βέλος σύνδεσης 96">
+        <xdr:cNvPr id="221" name="Γραμμή σύνδεσης: Γωνιώδης 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A34409-36B0-4BEB-A643-F3E53896F523}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5144C0-5E16-43AA-B886-6CA28490199C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="3"/>
-          <a:endCxn id="60" idx="1"/>
+          <a:stCxn id="60" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524875" y="6334125"/>
-          <a:ext cx="590550" cy="47625"/>
+          <a:off x="8912680" y="7864930"/>
+          <a:ext cx="481693" cy="463322"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -2863,154 +3202,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>230639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12247</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>239484</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="Ευθύγραμμο βέλος σύνδεσης 98">
+        <xdr:cNvPr id="225" name="Ευθύγραμμο βέλος σύνδεσης 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE138AB-2647-4BC6-AF7B-E8D0F6E9EB28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F265D83-8F1C-4132-AE42-747A3E4097FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="61" idx="3"/>
-          <a:endCxn id="62" idx="1"/>
+          <a:endCxn id="63" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="7677150"/>
-          <a:ext cx="238125" cy="28575"/>
+          <a:off x="10925174" y="7333568"/>
+          <a:ext cx="517073" cy="498702"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="Ευθύγραμμο βέλος σύνδεσης 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED80DB28-8B6C-4052-99AC-EDA34925F0DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="3"/>
-          <a:endCxn id="63" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8410575" y="7696200"/>
-          <a:ext cx="323850" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="Γραμμή σύνδεσης: Γωνιώδης 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8457047-8AEB-4F3A-849F-EEB1C841D342}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="3"/>
-          <a:endCxn id="61" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5105400" y="6381750"/>
-          <a:ext cx="5467350" cy="1295400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -4181"/>
-            <a:gd name="adj2" fmla="val 55882"/>
-            <a:gd name="adj3" fmla="val 104181"/>
-          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -3335,9 +3558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C5F415-C542-41D7-9A6F-D636905DB512}">
   <dimension ref="B1:BI105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF29" sqref="AF29"/>
+      <selection pane="topRight" activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3499,16 +3722,22 @@
       <c r="BI3" s="2"/>
     </row>
     <row r="4" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3560,16 +3789,16 @@
       <c r="BI4" s="2"/>
     </row>
     <row r="5" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3621,14 +3850,18 @@
       <c r="BI5" s="2"/>
     </row>
     <row r="6" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="12">
+        <v>44635</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12">
+        <v>44636</v>
+      </c>
+      <c r="J6" s="8"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3731,19 +3964,31 @@
       <c r="BI7" s="2"/>
     </row>
     <row r="8" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4">
         <v>3</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3795,19 +4040,19 @@
       <c r="BI8" s="2"/>
     </row>
     <row r="9" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3859,15 +4104,23 @@
       <c r="BI9" s="2"/>
     </row>
     <row r="10" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6"/>
+      <c r="B10" s="12">
+        <v>44636</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="12">
+        <v>44636</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="12">
+        <v>44636</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12">
+        <v>44637</v>
+      </c>
+      <c r="J10" s="8"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3970,19 +4223,31 @@
       <c r="BI11" s="2"/>
     </row>
     <row r="12" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4034,13 +4299,13 @@
       <c r="BI12" s="2"/>
     </row>
     <row r="13" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="9" t="s">
         <v>7</v>
       </c>
@@ -4098,15 +4363,23 @@
       <c r="BI13" s="2"/>
     </row>
     <row r="14" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="12">
+        <v>44637</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12">
+        <v>44638</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="12">
+        <v>44637</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="12">
+        <v>44638</v>
+      </c>
+      <c r="J14" s="8"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4209,19 +4482,31 @@
       <c r="BI15" s="2"/>
     </row>
     <row r="16" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7">
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4">
         <v>7</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="4">
+        <v>7</v>
+      </c>
+      <c r="I16" s="4">
+        <v>8</v>
+      </c>
+      <c r="J16" s="4">
+        <v>9</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4273,19 +4558,19 @@
       <c r="BI16" s="2"/>
     </row>
     <row r="17" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4337,15 +4622,23 @@
       <c r="BI17" s="2"/>
     </row>
     <row r="18" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="12">
+        <v>44639</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="12">
+        <v>44649</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="12">
+        <v>44656</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12">
+        <v>44664</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4448,19 +4741,31 @@
       <c r="BI19" s="2"/>
     </row>
     <row r="20" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>8</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7">
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4">
         <v>9</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>6</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4515,16 +4820,16 @@
       <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4576,15 +4881,23 @@
       <c r="BI21" s="2"/>
     </row>
     <row r="22" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6"/>
+      <c r="B22" s="12">
+        <v>44665</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="12">
+        <v>44673</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="12">
+        <v>44673</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12">
+        <v>44678</v>
+      </c>
+      <c r="J22" s="8"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4687,19 +5000,31 @@
       <c r="BI23" s="2"/>
     </row>
     <row r="24" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>10</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7">
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4">
         <v>11</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4">
+        <v>13</v>
+      </c>
+      <c r="J24" s="4">
+        <v>14</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4751,19 +5076,19 @@
       <c r="BI24" s="2"/>
     </row>
     <row r="25" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="4" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4815,15 +5140,23 @@
       <c r="BI25" s="2"/>
     </row>
     <row r="26" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="12">
+        <v>44678</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="12">
+        <v>44685</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="12">
+        <v>44686</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="12">
+        <v>44699</v>
+      </c>
+      <c r="J26" s="8"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4926,19 +5259,31 @@
       <c r="BI27" s="2"/>
     </row>
     <row r="28" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>12</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7">
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
         <v>13</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="E28" s="4">
+        <v>14</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4990,19 +5335,19 @@
       <c r="BI28" s="2"/>
     </row>
     <row r="29" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="4" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5054,15 +5399,23 @@
       <c r="BI29" s="2"/>
     </row>
     <row r="30" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="6"/>
+      <c r="B30" s="12">
+        <v>44686</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="12">
+        <v>44699</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="12">
+        <v>44700</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="12">
+        <v>44704</v>
+      </c>
+      <c r="J30" s="8"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5165,19 +5518,31 @@
       <c r="BI31" s="2"/>
     </row>
     <row r="32" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>14</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7">
+      <c r="C32" s="4">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4">
         <v>15</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="H32" s="4">
+        <v>9</v>
+      </c>
+      <c r="I32" s="4">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4">
+        <v>12</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5229,19 +5594,19 @@
       <c r="BI32" s="2"/>
     </row>
     <row r="33" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="4" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5293,15 +5658,23 @@
       <c r="BI33" s="2"/>
     </row>
     <row r="34" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="6"/>
+      <c r="B34" s="12">
+        <v>44702</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="12">
+        <v>44713</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="12">
+        <v>44714</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="12">
+        <v>44724</v>
+      </c>
+      <c r="J34" s="8"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5404,12 +5777,18 @@
       <c r="BI35" s="2"/>
     </row>
     <row r="36" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>16</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="C36" s="3">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>12</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5461,12 +5840,12 @@
       <c r="BI36" s="2"/>
     </row>
     <row r="37" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5518,10 +5897,14 @@
       <c r="BI37" s="2"/>
     </row>
     <row r="38" spans="2:61" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="12">
+        <v>44714</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="12">
+        <v>44724</v>
+      </c>
+      <c r="E38" s="8"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -8991,12 +9374,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
@@ -9006,42 +9419,12 @@
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
